--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp8a-Bmpr1a.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H2">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I2">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J2">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>3.973796045854999</v>
+        <v>3.7817575250655</v>
       </c>
       <c r="R2">
-        <v>15.89518418342</v>
+        <v>15.127030100262</v>
       </c>
       <c r="S2">
-        <v>0.02754845512546201</v>
+        <v>0.03884413522979526</v>
       </c>
       <c r="T2">
-        <v>0.01796264719487752</v>
+        <v>0.0242326775192868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H3">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I3">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J3">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
-        <v>22.12165510707417</v>
+        <v>13.488228044279</v>
       </c>
       <c r="R3">
-        <v>132.729930642445</v>
+        <v>80.929368265674</v>
       </c>
       <c r="S3">
-        <v>0.1533590088635408</v>
+        <v>0.138543666718351</v>
       </c>
       <c r="T3">
-        <v>0.1499939156928865</v>
+        <v>0.1296444358227141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H4">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I4">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J4">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.1312087654716667</v>
+        <v>0.887909350891</v>
       </c>
       <c r="R4">
-        <v>0.7872525928299999</v>
+        <v>5.327456105346</v>
       </c>
       <c r="S4">
-        <v>0.0009096085319813548</v>
+        <v>0.009120116948061701</v>
       </c>
       <c r="T4">
-        <v>0.0008896493689584444</v>
+        <v>0.008534294236432387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H5">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I5">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J5">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>23.93714955675</v>
+        <v>14.031337152174</v>
       </c>
       <c r="R5">
-        <v>95.74859822699999</v>
+        <v>56.12534860869601</v>
       </c>
       <c r="S5">
-        <v>0.1659449762358695</v>
+        <v>0.1441221850373544</v>
       </c>
       <c r="T5">
-        <v>0.1082024762663444</v>
+        <v>0.08990974860746302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H6">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I6">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J6">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>4.306861518839166</v>
+        <v>7.808183289752001</v>
       </c>
       <c r="R6">
-        <v>25.841169113035</v>
+        <v>46.849099738512</v>
       </c>
       <c r="S6">
-        <v>0.0298574410750343</v>
+        <v>0.08020136817230269</v>
       </c>
       <c r="T6">
-        <v>0.02920229162017434</v>
+        <v>0.07504970364358579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9146825</v>
+        <v>0.557709</v>
       </c>
       <c r="H7">
-        <v>1.829365</v>
+        <v>1.115418</v>
       </c>
       <c r="I7">
-        <v>0.3844151897968112</v>
+        <v>0.4170172494453693</v>
       </c>
       <c r="J7">
-        <v>0.312897564880365</v>
+        <v>0.3331592991879933</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>0.9802627960966666</v>
+        <v>0.6022301658579999</v>
       </c>
       <c r="R7">
-        <v>5.881576776579999</v>
+        <v>3.613380995148</v>
       </c>
       <c r="S7">
-        <v>0.006795699964923242</v>
+        <v>0.00618577733950434</v>
       </c>
       <c r="T7">
-        <v>0.00664658473712383</v>
+        <v>0.005788439358511262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H8">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I8">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J8">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>0.9624370316793333</v>
+        <v>1.502184057687167</v>
       </c>
       <c r="R8">
-        <v>5.774622190075999</v>
+        <v>9.013104346123001</v>
       </c>
       <c r="S8">
-        <v>0.006672122341547177</v>
+        <v>0.01542960919363338</v>
       </c>
       <c r="T8">
-        <v>0.006525718726319796</v>
+        <v>0.01443850178254739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H9">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I9">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J9">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
-        <v>5.357773733580111</v>
+        <v>5.357773733580112</v>
       </c>
       <c r="R9">
-        <v>48.219963602221</v>
+        <v>48.21996360222101</v>
       </c>
       <c r="S9">
-        <v>0.03714292016216287</v>
+        <v>0.05503210770611908</v>
       </c>
       <c r="T9">
-        <v>0.0544918626888266</v>
+        <v>0.07724575281595628</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H10">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I10">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J10">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.03177822246377778</v>
+        <v>0.3526940219565556</v>
       </c>
       <c r="R10">
-        <v>0.286004002174</v>
+        <v>3.174246197609</v>
       </c>
       <c r="S10">
-        <v>0.0002203034391821616</v>
+        <v>0.003622679188926461</v>
       </c>
       <c r="T10">
-        <v>0.0003232041181840012</v>
+        <v>0.005084969353776124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H11">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I11">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J11">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>5.7974790101</v>
+        <v>5.573506719647335</v>
       </c>
       <c r="R11">
-        <v>34.7848740606</v>
+        <v>33.44104031788401</v>
       </c>
       <c r="S11">
-        <v>0.04019118961003051</v>
+        <v>0.05724799839418682</v>
       </c>
       <c r="T11">
-        <v>0.03930929099396988</v>
+        <v>0.05357072343755803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H12">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I12">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J12">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>1.043104117124778</v>
+        <v>3.101554866916445</v>
       </c>
       <c r="R12">
-        <v>9.387937054122999</v>
+        <v>27.913993802248</v>
       </c>
       <c r="S12">
-        <v>0.007231349226332477</v>
+        <v>0.03185746729519508</v>
       </c>
       <c r="T12">
-        <v>0.0106090120910223</v>
+        <v>0.04471669624518897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2215323333333333</v>
+        <v>0.2215323333333334</v>
       </c>
       <c r="H13">
-        <v>0.664597</v>
+        <v>0.6645970000000001</v>
       </c>
       <c r="I13">
-        <v>0.09310377531489208</v>
+        <v>0.1656469669843617</v>
       </c>
       <c r="J13">
-        <v>0.113673751780971</v>
+        <v>0.1985055564482937</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>0.2374156108804444</v>
+        <v>0.2392169641268889</v>
       </c>
       <c r="R13">
-        <v>2.136740497924</v>
+        <v>2.152952677142</v>
       </c>
       <c r="S13">
-        <v>0.001645890535636898</v>
+        <v>0.002457105206300875</v>
       </c>
       <c r="T13">
-        <v>0.002414663162648398</v>
+        <v>0.003448912813266873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H14">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I14">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J14">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N14">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O14">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P14">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q14">
-        <v>0.5502323398566666</v>
+        <v>1.4464633105425</v>
       </c>
       <c r="R14">
-        <v>3.30139403914</v>
+        <v>8.678779863254999</v>
       </c>
       <c r="S14">
-        <v>0.003814501486288018</v>
+        <v>0.01485727629739483</v>
       </c>
       <c r="T14">
-        <v>0.003730801461124318</v>
+        <v>0.01390293218782554</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H15">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I15">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J15">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P15">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q15">
-        <v>3.063078706257222</v>
+        <v>5.159036998265</v>
       </c>
       <c r="R15">
-        <v>27.567708356315</v>
+        <v>46.431332984385</v>
       </c>
       <c r="S15">
-        <v>0.02123488103349036</v>
+        <v>0.05299079316637356</v>
       </c>
       <c r="T15">
-        <v>0.03115339925990204</v>
+        <v>0.07438046407944533</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H16">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I16">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J16">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N16">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O16">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P16">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q16">
-        <v>0.01816784384555556</v>
+        <v>0.339611487685</v>
       </c>
       <c r="R16">
-        <v>0.16351059461</v>
+        <v>3.056503389165</v>
       </c>
       <c r="S16">
-        <v>0.0001259490988290019</v>
+        <v>0.003488302585713664</v>
       </c>
       <c r="T16">
-        <v>0.0001847781749309765</v>
+        <v>0.004896351793797235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H17">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I17">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J17">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N17">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O17">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P17">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q17">
-        <v>3.3144614515</v>
+        <v>5.366767767090001</v>
       </c>
       <c r="R17">
-        <v>19.886768709</v>
+        <v>32.20060660254001</v>
       </c>
       <c r="S17">
-        <v>0.02297759912891443</v>
+        <v>0.05512448947613047</v>
       </c>
       <c r="T17">
-        <v>0.02247341119447398</v>
+        <v>0.05158361625202652</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H18">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I18">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J18">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N18">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O18">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P18">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q18">
-        <v>0.5963503067605554</v>
+        <v>2.98650840932</v>
       </c>
       <c r="R18">
-        <v>5.367152760844999</v>
+        <v>26.87857568388</v>
       </c>
       <c r="S18">
-        <v>0.004134215615314478</v>
+        <v>0.03067577330054696</v>
       </c>
       <c r="T18">
-        <v>0.00606525035328835</v>
+        <v>0.04305801286889265</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1266516666666667</v>
+        <v>0.213315</v>
       </c>
       <c r="H19">
-        <v>0.379955</v>
+        <v>0.639945</v>
       </c>
       <c r="I19">
-        <v>0.05322811410489338</v>
+        <v>0.1595025982464671</v>
       </c>
       <c r="J19">
-        <v>0.06498812115904649</v>
+        <v>0.1911423589352694</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N19">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O19">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P19">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q19">
-        <v>0.1357322534288889</v>
+        <v>0.23034365203</v>
       </c>
       <c r="R19">
-        <v>1.22159028086</v>
+        <v>2.07309286827</v>
       </c>
       <c r="S19">
-        <v>0.0009409677420570928</v>
+        <v>0.002365963420307666</v>
       </c>
       <c r="T19">
-        <v>0.00138048071532684</v>
+        <v>0.003320981753282168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H20">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I20">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J20">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N20">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O20">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P20">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q20">
-        <v>1.637974286031</v>
+        <v>0.7216076346309999</v>
       </c>
       <c r="R20">
-        <v>6.551897144124</v>
+        <v>2.886430538523999</v>
       </c>
       <c r="S20">
-        <v>0.0113553037434957</v>
+        <v>0.00741195710107664</v>
       </c>
       <c r="T20">
-        <v>0.007404092679830968</v>
+        <v>0.004623904359168423</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H21">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I21">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J21">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>72.555193</v>
       </c>
       <c r="O21">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P21">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q21">
-        <v>9.118410157871502</v>
+        <v>2.573726176224667</v>
       </c>
       <c r="R21">
-        <v>54.71046094722901</v>
+        <v>15.442357057348</v>
       </c>
       <c r="S21">
-        <v>0.06321364009401051</v>
+        <v>0.02643590102514658</v>
       </c>
       <c r="T21">
-        <v>0.06182656938881423</v>
+        <v>0.02473781411342042</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H22">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I22">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J22">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N22">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O22">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P22">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q22">
-        <v>0.05408344602100001</v>
+        <v>0.1694244441153333</v>
       </c>
       <c r="R22">
-        <v>0.324500676126</v>
+        <v>1.016546664692</v>
       </c>
       <c r="S22">
-        <v>0.0003749350415942891</v>
+        <v>0.001740234791582761</v>
       </c>
       <c r="T22">
-        <v>0.0003667079973713403</v>
+        <v>0.001628452336348637</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H23">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I23">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J23">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N23">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O23">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P23">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q23">
-        <v>9.86674580235</v>
+        <v>2.677358330348</v>
       </c>
       <c r="R23">
-        <v>39.4669832094</v>
+        <v>10.709433321392</v>
       </c>
       <c r="S23">
-        <v>0.06840149842463704</v>
+        <v>0.02750035356665426</v>
       </c>
       <c r="T23">
-        <v>0.04460039512949347</v>
+        <v>0.01715592831980298</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H24">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I24">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J24">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N24">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O24">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P24">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q24">
-        <v>1.7752618252045</v>
+        <v>1.489901094170667</v>
       </c>
       <c r="R24">
-        <v>10.651570951227</v>
+        <v>8.939406565024001</v>
       </c>
       <c r="S24">
-        <v>0.01230705354860995</v>
+        <v>0.0153034453418541</v>
       </c>
       <c r="T24">
-        <v>0.01203700497334721</v>
+        <v>0.0143204419551112</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.3770265</v>
+        <v>0.106418</v>
       </c>
       <c r="H25">
-        <v>0.7540530000000001</v>
+        <v>0.212836</v>
       </c>
       <c r="I25">
-        <v>0.1584535765753991</v>
+        <v>0.0795722171445634</v>
       </c>
       <c r="J25">
-        <v>0.1289744515122646</v>
+        <v>0.06357104924071132</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N25">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O25">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P25">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q25">
-        <v>0.404058294646</v>
+        <v>0.1149132070493333</v>
       </c>
       <c r="R25">
-        <v>2.424349767876</v>
+        <v>0.689479242296</v>
       </c>
       <c r="S25">
-        <v>0.002801145723051587</v>
+        <v>0.001180325318249074</v>
       </c>
       <c r="T25">
-        <v>0.002739681343407377</v>
+        <v>0.001104508156859673</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H26">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I26">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J26">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N26">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O26">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P26">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q26">
-        <v>2.358402783564667</v>
+        <v>1.199121689607333</v>
       </c>
       <c r="R26">
-        <v>14.150416701388</v>
+        <v>7.194730137643999</v>
       </c>
       <c r="S26">
-        <v>0.01634969497706492</v>
+        <v>0.01231671908084088</v>
       </c>
       <c r="T26">
-        <v>0.01599094039644189</v>
+        <v>0.01152556543539907</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H27">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I27">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J27">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>72.555193</v>
       </c>
       <c r="O27">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P27">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q27">
-        <v>13.12895085191922</v>
+        <v>4.276854529954222</v>
       </c>
       <c r="R27">
-        <v>118.160557667273</v>
+        <v>38.491690769588</v>
       </c>
       <c r="S27">
-        <v>0.09101682854754405</v>
+        <v>0.04392949960926617</v>
       </c>
       <c r="T27">
-        <v>0.1335295260020405</v>
+        <v>0.06166159010785462</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H28">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I28">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J28">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N28">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O28">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P28">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q28">
-        <v>0.07787091087355556</v>
+        <v>0.2815387697391111</v>
       </c>
       <c r="R28">
-        <v>0.700838197862</v>
+        <v>2.533848927652</v>
       </c>
       <c r="S28">
-        <v>0.0005398423243227704</v>
+        <v>0.00289181153780789</v>
       </c>
       <c r="T28">
-        <v>0.0007919951819130317</v>
+        <v>0.004059087840733397</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H29">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I29">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J29">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N29">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O29">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P29">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q29">
-        <v>14.2064261713</v>
+        <v>4.449063855058667</v>
       </c>
       <c r="R29">
-        <v>85.23855702779998</v>
+        <v>26.694383130352</v>
       </c>
       <c r="S29">
-        <v>0.09848645711988001</v>
+        <v>0.04569833916808293</v>
       </c>
       <c r="T29">
-        <v>0.09632540960977942</v>
+        <v>0.04276294644002235</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H30">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I30">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J30">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N30">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O30">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P30">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q30">
-        <v>2.556073355866555</v>
+        <v>2.475822914904889</v>
       </c>
       <c r="R30">
-        <v>23.004660202799</v>
+        <v>22.282406234144</v>
       </c>
       <c r="S30">
-        <v>0.01772005189217713</v>
+        <v>0.02543029252250268</v>
       </c>
       <c r="T30">
-        <v>0.02599684220658138</v>
+        <v>0.03569519998617609</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5428536666666667</v>
+        <v>0.1768386666666667</v>
       </c>
       <c r="H31">
-        <v>1.628561</v>
+        <v>0.530516</v>
       </c>
       <c r="I31">
-        <v>0.2281460455442862</v>
+        <v>0.1322280514908668</v>
       </c>
       <c r="J31">
-        <v>0.2785517221326155</v>
+        <v>0.158457491960877</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N31">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O31">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P31">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q31">
-        <v>0.5817748269568889</v>
+        <v>0.1909554616417778</v>
       </c>
       <c r="R31">
-        <v>5.235973442612</v>
+        <v>1.718599154776</v>
       </c>
       <c r="S31">
-        <v>0.004033170683297341</v>
+        <v>0.001961389572366284</v>
       </c>
       <c r="T31">
-        <v>0.005917008735859231</v>
+        <v>0.002753102150691454</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H32">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I32">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J32">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N32">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O32">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P32">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q32">
-        <v>0.8544078385153332</v>
+        <v>0.4174535449516666</v>
       </c>
       <c r="R32">
-        <v>5.126447031091999</v>
+        <v>2.50472126971</v>
       </c>
       <c r="S32">
-        <v>0.005923206859781931</v>
+        <v>0.004287853423912762</v>
       </c>
       <c r="T32">
-        <v>0.005793236386577057</v>
+        <v>0.004012426920703341</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H33">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I33">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J33">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>72.555193</v>
       </c>
       <c r="O33">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P33">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q33">
-        <v>4.756387923867444</v>
+        <v>1.488913177241111</v>
       </c>
       <c r="R33">
-        <v>42.807491314807</v>
+        <v>13.40021859517</v>
       </c>
       <c r="S33">
-        <v>0.03297379577812709</v>
+        <v>0.01529329800201195</v>
       </c>
       <c r="T33">
-        <v>0.04837539816542206</v>
+        <v>0.02146641963111324</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H34">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I34">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J34">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N34">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O34">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P34">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q34">
-        <v>0.02821126107311111</v>
+        <v>0.09801286932555556</v>
       </c>
       <c r="R34">
-        <v>0.253901349658</v>
+        <v>0.8821158239300001</v>
       </c>
       <c r="S34">
-        <v>0.0001955753769788851</v>
+        <v>0.001006734335849888</v>
       </c>
       <c r="T34">
-        <v>0.0002869259213093687</v>
+        <v>0.001413101458400974</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H35">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I35">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J35">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N35">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O35">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P35">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q35">
-        <v>5.146738276699999</v>
+        <v>1.548864885113334</v>
       </c>
       <c r="R35">
-        <v>30.88042966019999</v>
+        <v>9.293189310680003</v>
       </c>
       <c r="S35">
-        <v>0.03567991080117482</v>
+        <v>0.01590908900194007</v>
       </c>
       <c r="T35">
-        <v>0.0348970013062822</v>
+        <v>0.01488718262598626</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H36">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I36">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J36">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N36">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O36">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P36">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q36">
-        <v>0.9260204093601109</v>
+        <v>0.8619150678844445</v>
       </c>
       <c r="R36">
-        <v>8.334183684240998</v>
+        <v>7.757235610960001</v>
       </c>
       <c r="S36">
-        <v>0.006419663062257179</v>
+        <v>0.008853117956821321</v>
       </c>
       <c r="T36">
-        <v>0.009418198584542308</v>
+        <v>0.01242666853675829</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1966663333333333</v>
+        <v>0.06156333333333334</v>
       </c>
       <c r="H37">
-        <v>0.5899989999999999</v>
+        <v>0.18469</v>
       </c>
       <c r="I37">
-        <v>0.08265329866371803</v>
+        <v>0.04603291668837169</v>
       </c>
       <c r="J37">
-        <v>0.1009143885347377</v>
+        <v>0.05516424422685531</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N37">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O37">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P37">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q37">
-        <v>0.2107667849897777</v>
+        <v>0.06647785214888889</v>
       </c>
       <c r="R37">
-        <v>1.896901064908</v>
+        <v>0.59830066934</v>
       </c>
       <c r="S37">
-        <v>0.00146114678539812</v>
+        <v>0.0006828239678357091</v>
       </c>
       <c r="T37">
-        <v>0.00214362817060473</v>
+        <v>0.0009584450538931997</v>
       </c>
     </row>
   </sheetData>
